--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H2">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I2">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J2">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>357.1664757675238</v>
+        <v>23.50214094453333</v>
       </c>
       <c r="R2">
-        <v>3214.498281907714</v>
+        <v>211.5192685008</v>
       </c>
       <c r="S2">
-        <v>0.1498224177932718</v>
+        <v>0.009282066545070806</v>
       </c>
       <c r="T2">
-        <v>0.1498224177932718</v>
+        <v>0.009282066545070805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H3">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I3">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J3">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>356.763449948213</v>
+        <v>550.1759181513053</v>
       </c>
       <c r="R3">
-        <v>3210.871049533916</v>
+        <v>4951.583263361748</v>
       </c>
       <c r="S3">
-        <v>0.1496533585260142</v>
+        <v>0.2172895437836141</v>
       </c>
       <c r="T3">
-        <v>0.1496533585260142</v>
+        <v>0.2172895437836141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H4">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I4">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J4">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>438.8243734737321</v>
+        <v>787.3445516834561</v>
       </c>
       <c r="R4">
-        <v>3949.419361263589</v>
+        <v>7086.100965151104</v>
       </c>
       <c r="S4">
-        <v>0.1840758668046032</v>
+        <v>0.3109582458837515</v>
       </c>
       <c r="T4">
-        <v>0.1840758668046032</v>
+        <v>0.3109582458837515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H5">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I5">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J5">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>585.3774138925022</v>
+        <v>644.5349804096448</v>
       </c>
       <c r="R5">
-        <v>5268.396725032519</v>
+        <v>5800.814823686805</v>
       </c>
       <c r="S5">
-        <v>0.2455512076895825</v>
+        <v>0.254556237787341</v>
       </c>
       <c r="T5">
-        <v>0.2455512076895825</v>
+        <v>0.2545562377873411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J6">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>28.85237908254222</v>
+        <v>1.231110812444444</v>
       </c>
       <c r="R6">
-        <v>259.67141174288</v>
+        <v>11.079997312</v>
       </c>
       <c r="S6">
-        <v>0.0121028525534074</v>
+        <v>0.0004862217664524529</v>
       </c>
       <c r="T6">
-        <v>0.0121028525534074</v>
+        <v>0.0004862217664524528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J7">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>28.81982212519111</v>
@@ -883,10 +883,10 @@
         <v>259.37839912672</v>
       </c>
       <c r="S7">
-        <v>0.01208919572277722</v>
+        <v>0.01138226119120228</v>
       </c>
       <c r="T7">
-        <v>0.01208919572277722</v>
+        <v>0.01138226119120228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J8">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>35.44881178144</v>
+        <v>41.24340812117334</v>
       </c>
       <c r="R8">
-        <v>319.03930603296</v>
+        <v>371.19067309056</v>
       </c>
       <c r="S8">
-        <v>0.01486989135131164</v>
+        <v>0.01628890149326122</v>
       </c>
       <c r="T8">
-        <v>0.01486989135131164</v>
+        <v>0.01628890149326122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J9">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>47.28755971760888</v>
+        <v>33.76262550946666</v>
       </c>
       <c r="R9">
-        <v>425.58803745848</v>
+        <v>303.8636295852</v>
       </c>
       <c r="S9">
-        <v>0.0198359504855861</v>
+        <v>0.01333439951086964</v>
       </c>
       <c r="T9">
-        <v>0.0198359504855861</v>
+        <v>0.01333439951086964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H10">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>67.71015751672421</v>
+        <v>2.700415467911111</v>
       </c>
       <c r="R10">
-        <v>609.391417650518</v>
+        <v>24.3037392112</v>
       </c>
       <c r="S10">
-        <v>0.02840272029036078</v>
+        <v>0.001066517136955548</v>
       </c>
       <c r="T10">
-        <v>0.02840272029036078</v>
+        <v>0.001066517136955548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H11">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>67.6337535326991</v>
+        <v>63.21566885988577</v>
       </c>
       <c r="R11">
-        <v>608.703781794292</v>
+        <v>568.9410197389719</v>
       </c>
       <c r="S11">
-        <v>0.02837067072694338</v>
+        <v>0.02496674862232519</v>
       </c>
       <c r="T11">
-        <v>0.02837067072694338</v>
+        <v>0.02496674862232519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H12">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>83.19052729188401</v>
+        <v>90.46654136571733</v>
       </c>
       <c r="R12">
-        <v>748.714745626956</v>
+        <v>814.1988722914559</v>
       </c>
       <c r="S12">
-        <v>0.03489634885128412</v>
+        <v>0.03572936010556559</v>
       </c>
       <c r="T12">
-        <v>0.03489634885128412</v>
+        <v>0.03572936010556559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H13">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>110.9734524110059</v>
+        <v>74.05760329732165</v>
       </c>
       <c r="R13">
-        <v>998.7610716990529</v>
+        <v>666.5184296758949</v>
       </c>
       <c r="S13">
-        <v>0.04655059217233309</v>
+        <v>0.02924872264175948</v>
       </c>
       <c r="T13">
-        <v>0.04655059217233309</v>
+        <v>0.02924872264175948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H14">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I14">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J14">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>36.14217023663466</v>
+        <v>2.237527765866667</v>
       </c>
       <c r="R14">
-        <v>325.279532129712</v>
+        <v>20.1377498928</v>
       </c>
       <c r="S14">
-        <v>0.01516073790943678</v>
+        <v>0.0008837016877838489</v>
       </c>
       <c r="T14">
-        <v>0.01516073790943679</v>
+        <v>0.0008837016877838488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H15">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I15">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J15">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>36.10138749592533</v>
+        <v>52.37964898091866</v>
       </c>
       <c r="R15">
-        <v>324.912487463328</v>
+        <v>471.416840828268</v>
       </c>
       <c r="S15">
-        <v>0.01514363056809357</v>
+        <v>0.02068711053158018</v>
       </c>
       <c r="T15">
-        <v>0.01514363056809357</v>
+        <v>0.02068711053158018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H16">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I16">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J16">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>44.405245973856</v>
+        <v>74.959353696896</v>
       </c>
       <c r="R16">
-        <v>399.647213764704</v>
+        <v>674.634183272064</v>
       </c>
       <c r="S16">
-        <v>0.01862689184423447</v>
+        <v>0.02960486497090504</v>
       </c>
       <c r="T16">
-        <v>0.01862689184423446</v>
+        <v>0.02960486497090504</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H17">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I17">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J17">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>59.23515105979465</v>
+        <v>61.36312934819499</v>
       </c>
       <c r="R17">
-        <v>533.116359538152</v>
+        <v>552.2681641337549</v>
       </c>
       <c r="S17">
-        <v>0.02484766671075987</v>
+        <v>0.02423509634156195</v>
       </c>
       <c r="T17">
-        <v>0.02484766671075987</v>
+        <v>0.02423509634156196</v>
       </c>
     </row>
   </sheetData>
